--- a/data/outputs/OR_altmetric/60.xlsx
+++ b/data/outputs/OR_altmetric/60.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE125"/>
+  <dimension ref="A1:CF125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1276,6 +1284,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1531,6 +1542,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1786,6 +1800,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2033,6 +2050,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2292,6 +2312,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2539,6 +2562,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2794,6 +2820,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3049,6 +3078,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3296,6 +3328,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3543,6 +3578,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3798,6 +3836,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4045,6 +4086,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4292,6 +4336,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4537,6 +4584,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4784,6 +4834,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5039,6 +5092,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5286,6 +5342,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5533,6 +5592,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5784,6 +5846,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6031,6 +6096,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6270,6 +6338,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6517,6 +6588,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6776,6 +6850,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7027,6 +7104,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7278,6 +7358,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7525,6 +7608,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7780,6 +7866,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8035,6 +8124,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8290,6 +8382,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8537,6 +8632,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8784,6 +8882,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9043,6 +9144,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9298,6 +9402,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9545,6 +9652,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9800,6 +9910,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10059,6 +10172,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10306,6 +10422,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10553,6 +10672,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10796,6 +10918,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11035,6 +11160,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11278,6 +11406,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11533,6 +11664,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11772,6 +11906,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12011,6 +12148,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12258,6 +12398,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12513,6 +12656,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12768,6 +12914,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13011,6 +13160,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13254,6 +13406,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13509,6 +13664,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13760,6 +13918,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14019,6 +14180,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14258,6 +14422,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14513,6 +14680,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14760,6 +14930,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15015,6 +15188,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15258,6 +15434,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15497,6 +15676,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15748,6 +15930,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15999,6 +16184,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16250,6 +16438,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16497,6 +16688,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16748,6 +16942,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16991,6 +17188,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17230,6 +17430,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17477,6 +17680,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17724,6 +17930,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17971,6 +18180,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18224,6 +18436,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18475,6 +18690,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18722,6 +18940,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18969,6 +19190,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19208,6 +19432,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19455,6 +19682,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19694,6 +19924,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19945,6 +20178,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20196,6 +20432,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20443,6 +20682,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20682,6 +20924,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20941,6 +21186,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21192,6 +21440,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21443,6 +21694,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21698,6 +21952,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21945,6 +22202,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22196,6 +22456,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22445,6 +22708,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22692,6 +22958,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22941,6 +23210,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23188,6 +23460,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23435,6 +23710,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23690,6 +23968,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23929,6 +24210,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24180,6 +24464,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24431,6 +24718,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24682,6 +24972,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24937,6 +25230,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25180,6 +25476,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25423,6 +25722,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25670,6 +25972,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25917,6 +26222,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26172,6 +26480,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26419,6 +26730,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26666,6 +26980,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26921,6 +27238,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27176,6 +27496,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27427,6 +27750,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27666,6 +27992,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27909,6 +28238,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28148,6 +28480,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28395,6 +28730,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28638,6 +28976,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28885,6 +29226,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29140,6 +29484,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29379,6 +29726,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29640,6 +29990,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29887,6 +30240,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30134,6 +30490,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30383,6 +30742,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30622,6 +30984,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30865,6 +31230,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31108,6 +31476,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31363,6 +31734,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31612,6 +31986,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
